--- a/excel/testdata.xlsx
+++ b/excel/testdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="748">
   <si>
     <t>test_case_id</t>
   </si>
@@ -109,22 +109,25 @@
     <t>wisarut1234</t>
   </si>
   <si>
+    <t>0656683656</t>
+  </si>
+  <si>
     <t>664259015@webmail.npru.ac.th</t>
   </si>
   <si>
-    <t>mj2</t>
-  </si>
-  <si>
-    <t>นครปฐม</t>
-  </si>
-  <si>
-    <t>เมือง</t>
+    <t>67 Karstens Pass</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>เขตบางเขน</t>
   </si>
   <si>
     <t>วังตะกู</t>
   </si>
   <si>
-    <t>73000</t>
+    <t>10210</t>
   </si>
   <si>
     <t>tc102</t>
@@ -157,23 +160,2108 @@
     <t>2005</t>
   </si>
   <si>
-    <t>123466879</t>
+    <t>170040123457</t>
   </si>
   <si>
     <t>somying1234</t>
   </si>
   <si>
+    <t>0659987525</t>
+  </si>
+  <si>
     <t>somying@gmail.com</t>
   </si>
   <si>
-    <t>mj1</t>
+    <t>25288 Corscot Trail</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>เมืองเชียงใหม่</t>
+  </si>
+  <si>
+    <t>ช้างเผือก</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>tc103</t>
+  </si>
+  <si>
+    <t>ลีโอนอร่า</t>
+  </si>
+  <si>
+    <t>แมคเนียล</t>
+  </si>
+  <si>
+    <t>Leonora</t>
+  </si>
+  <si>
+    <t>McNeill</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>170040123458</t>
+  </si>
+  <si>
+    <t>pM2!s9"f#4OC}</t>
+  </si>
+  <si>
+    <t>0663291394</t>
+  </si>
+  <si>
+    <t>lmcneill0@seesaa.net</t>
+  </si>
+  <si>
+    <t>27 2nd Alley</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>เมืองภูเก็ต</t>
+  </si>
+  <si>
+    <t>วิชิต</t>
+  </si>
+  <si>
+    <t>83000</t>
+  </si>
+  <si>
+    <t>tc104</t>
+  </si>
+  <si>
+    <t>นาง</t>
+  </si>
+  <si>
+    <t>ไอแซค</t>
+  </si>
+  <si>
+    <t>สแตรงวูด</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Isaak</t>
+  </si>
+  <si>
+    <t>Strangwood</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>170040123459</t>
+  </si>
+  <si>
+    <t>lB7~qo2x89Ef</t>
+  </si>
+  <si>
+    <t>0666595263</t>
+  </si>
+  <si>
+    <t>istrangwood1@columbia.edu</t>
+  </si>
+  <si>
+    <t>67484 Summit Alley</t>
+  </si>
+  <si>
+    <t>ชลบุรี</t>
+  </si>
+  <si>
+    <t>เมืองชลบุรี</t>
+  </si>
+  <si>
+    <t>พานทอง</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>tc105</t>
+  </si>
+  <si>
+    <t>เวิร์ธิงตัน</t>
+  </si>
+  <si>
+    <t>ซิโมนีตัน</t>
+  </si>
+  <si>
+    <t>Worthington</t>
+  </si>
+  <si>
+    <t>Simoneton</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>170040123460</t>
+  </si>
+  <si>
+    <t>qV1&gt;Bj1$EQMmTi</t>
+  </si>
+  <si>
+    <t>0669899132</t>
+  </si>
+  <si>
+    <t>wsimoneton2@ftc.gov</t>
+  </si>
+  <si>
+    <t>801 Dahle Place</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>เมืองนครราชสีมา</t>
+  </si>
+  <si>
+    <t>สีคิ้ว</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>tc106</t>
+  </si>
+  <si>
+    <t>ซิกฟรีด</t>
+  </si>
+  <si>
+    <t>บาร์โร</t>
+  </si>
+  <si>
+    <t>Sigfried</t>
+  </si>
+  <si>
+    <t>Barreau</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>170040123461</t>
+  </si>
+  <si>
+    <t>jM3.a2k5</t>
+  </si>
+  <si>
+    <t>0673203001</t>
+  </si>
+  <si>
+    <t>sbarreau3@digg.com</t>
+  </si>
+  <si>
+    <t>32995 Stoughton Hill</t>
+  </si>
+  <si>
+    <t>ระยอง</t>
+  </si>
+  <si>
+    <t>เมืองระยอง</t>
+  </si>
+  <si>
+    <t>ท่าประดู่</t>
+  </si>
+  <si>
+    <t>21150</t>
+  </si>
+  <si>
+    <t>tc107</t>
+  </si>
+  <si>
+    <t>โรซาลินด์</t>
+  </si>
+  <si>
+    <t>เพียร์ซเฮาส์</t>
+  </si>
+  <si>
+    <t>Rosalynd</t>
+  </si>
+  <si>
+    <t>Pearcehouse</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>170040123462</t>
+  </si>
+  <si>
+    <t>mD1`X"PumhkB'|</t>
+  </si>
+  <si>
+    <t>0676506870</t>
+  </si>
+  <si>
+    <t>rpearcehouse4@ft.com</t>
+  </si>
+  <si>
+    <t>9 Northfield Court</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>เมืองขอนแก่น</t>
+  </si>
+  <si>
+    <t>ในเมือง</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>tc108</t>
+  </si>
+  <si>
+    <t>เมิร์ล</t>
+  </si>
+  <si>
+    <t>อาร์มิเกอร์</t>
+  </si>
+  <si>
+    <t>Myrle</t>
+  </si>
+  <si>
+    <t>Armiger</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>170040123463</t>
+  </si>
+  <si>
+    <t>nE3{7bMvA</t>
+  </si>
+  <si>
+    <t>0679810739</t>
+  </si>
+  <si>
+    <t>marmiger5@purevolume.com</t>
+  </si>
+  <si>
+    <t>50 East Street</t>
+  </si>
+  <si>
+    <t>สระบุรี</t>
+  </si>
+  <si>
+    <t>เมืองสระบุรี</t>
+  </si>
+  <si>
+    <t>ท่าข้าม</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>tc109</t>
+  </si>
+  <si>
+    <t>รอนนี</t>
+  </si>
+  <si>
+    <t>ออร์เฟอร์</t>
+  </si>
+  <si>
+    <t>Ronnie</t>
+  </si>
+  <si>
+    <t>Orfeur</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>170040123464</t>
+  </si>
+  <si>
+    <t>dN8'V}LZ{`</t>
+  </si>
+  <si>
+    <t>0683114608</t>
+  </si>
+  <si>
+    <t>rorfeur6@seesaa.net</t>
+  </si>
+  <si>
+    <t>76 Clove Plaza</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>เมืองสุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>มะขามเตี้ย</t>
+  </si>
+  <si>
+    <t>84000</t>
+  </si>
+  <si>
+    <t>tc110</t>
+  </si>
+  <si>
+    <t>ไทเบิลท์</t>
+  </si>
+  <si>
+    <t>โอ'ไดวอย</t>
+  </si>
+  <si>
+    <t>Tybalt</t>
+  </si>
+  <si>
+    <t>O'Dyvoy</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>170040123465</t>
+  </si>
+  <si>
+    <t>pO2$YXh.}WS=s</t>
+  </si>
+  <si>
+    <t>0686418477</t>
+  </si>
+  <si>
+    <t>todyvoy7@pen.io</t>
+  </si>
+  <si>
+    <t>723 Grasskamp Park</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>เมืองอุดรธานี</t>
+  </si>
+  <si>
+    <t>หมากแข้ง</t>
+  </si>
+  <si>
+    <t>41000</t>
+  </si>
+  <si>
+    <t>tc111</t>
+  </si>
+  <si>
+    <t>โธมัสซีน่า</t>
+  </si>
+  <si>
+    <t>พิตต์สัน</t>
+  </si>
+  <si>
+    <t>Thomasina</t>
+  </si>
+  <si>
+    <t>Pittson</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>170040123466</t>
+  </si>
+  <si>
+    <t>gU1}8$Ko(9</t>
+  </si>
+  <si>
+    <t>0689722346</t>
+  </si>
+  <si>
+    <t>tpittson8@house.gov</t>
+  </si>
+  <si>
+    <t>76 North Trail</t>
+  </si>
+  <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>เมืองสงขลา</t>
+  </si>
+  <si>
+    <t>หาดใหญ่</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>tc112</t>
+  </si>
+  <si>
+    <t>ลิดี</t>
+  </si>
+  <si>
+    <t>คิพปิ้ง</t>
+  </si>
+  <si>
+    <t>Lydie</t>
+  </si>
+  <si>
+    <t>Kipping</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>170040123467</t>
+  </si>
+  <si>
+    <t>wE5)*d8RVn</t>
+  </si>
+  <si>
+    <t>0693026215</t>
+  </si>
+  <si>
+    <t>lkipping9@arstechnica.com</t>
+  </si>
+  <si>
+    <t>04 Bluejay Circle</t>
+  </si>
+  <si>
+    <t>สกลนคร</t>
+  </si>
+  <si>
+    <t>เมืองสกลนคร</t>
+  </si>
+  <si>
+    <t>คูเมือง</t>
+  </si>
+  <si>
+    <t>47000</t>
+  </si>
+  <si>
+    <t>tc113</t>
+  </si>
+  <si>
+    <t>อิบราฮิม</t>
+  </si>
+  <si>
+    <t>มาร์ล</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Marl</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>170040123468</t>
+  </si>
+  <si>
+    <t>fD2~pQr1p1*4n</t>
+  </si>
+  <si>
+    <t>0696330084</t>
+  </si>
+  <si>
+    <t>imarla@huffingtonpost.com</t>
+  </si>
+  <si>
+    <t>22 Hovde Terrace</t>
+  </si>
+  <si>
+    <t>พิษณุโลก</t>
+  </si>
+  <si>
+    <t>เมืองพิษณุโลก</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>tc114</t>
+  </si>
+  <si>
+    <t>รีวา</t>
+  </si>
+  <si>
+    <t>ลอนเดอร์</t>
+  </si>
+  <si>
+    <t>Reeva</t>
+  </si>
+  <si>
+    <t>Londer</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>170040123469</t>
+  </si>
+  <si>
+    <t>kB5{Jw%kas7k#</t>
+  </si>
+  <si>
+    <t>0699633953</t>
+  </si>
+  <si>
+    <t>rlonderb@1und1.de</t>
+  </si>
+  <si>
+    <t>7894 Jenna Parkway</t>
+  </si>
+  <si>
+    <t>สุรินทร์</t>
+  </si>
+  <si>
+    <t>เมืองสุรินทร์</t>
+  </si>
+  <si>
+    <t>ปราสาท</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>tc115</t>
+  </si>
+  <si>
+    <t>แคล</t>
+  </si>
+  <si>
+    <t>แมคริชชี</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>MacRitchie</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>170040123470</t>
+  </si>
+  <si>
+    <t>pI8'WREM1CO</t>
+  </si>
+  <si>
+    <t>0702937822</t>
+  </si>
+  <si>
+    <t>cmacritchiec@tumblr.com</t>
+  </si>
+  <si>
+    <t>8289 Blackbird Crossing</t>
+  </si>
+  <si>
+    <t>นครสวรรค์</t>
+  </si>
+  <si>
+    <t>เมืองนครสวรรค์</t>
+  </si>
+  <si>
+    <t>นครสวรรค์ใต้</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>tc116</t>
+  </si>
+  <si>
+    <t>เออร์วิน</t>
+  </si>
+  <si>
+    <t>เอทเทอรี</t>
+  </si>
+  <si>
+    <t>Ervin</t>
+  </si>
+  <si>
+    <t>Ettery</t>
+  </si>
+  <si>
+    <t>170040123471</t>
+  </si>
+  <si>
+    <t>pS8`f8wnX</t>
+  </si>
+  <si>
+    <t>0706241691</t>
+  </si>
+  <si>
+    <t>eetteryd@cornell.edu</t>
+  </si>
+  <si>
+    <t>850 Sloan Center</t>
+  </si>
+  <si>
+    <t>บุรีรัมย์</t>
+  </si>
+  <si>
+    <t>เมืองบุรีรัมย์</t>
+  </si>
+  <si>
+    <t>ปะคำ</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>tc117</t>
+  </si>
+  <si>
+    <t>ฟอน</t>
+  </si>
+  <si>
+    <t>ทริโพนี</t>
+  </si>
+  <si>
+    <t>Fawne</t>
+  </si>
+  <si>
+    <t>Tripony</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>170040123472</t>
+  </si>
+  <si>
+    <t>bR4@LYzgQL@`E</t>
+  </si>
+  <si>
+    <t>0709545560</t>
+  </si>
+  <si>
+    <t>ftriponye@diigo.com</t>
+  </si>
+  <si>
+    <t>697 5th Plaza</t>
+  </si>
+  <si>
+    <t>ลำปาง</t>
+  </si>
+  <si>
+    <t>เมืองลำปาง</t>
+  </si>
+  <si>
+    <t>เวียงเหนือ</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>tc118</t>
+  </si>
+  <si>
+    <t>คลีตัส</t>
+  </si>
+  <si>
+    <t>ลีท</t>
+  </si>
+  <si>
+    <t>Cletus</t>
+  </si>
+  <si>
+    <t>Leate</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>170040123473</t>
+  </si>
+  <si>
+    <t>lD8&amp;{sguX~N=L83x</t>
+  </si>
+  <si>
+    <t>0712849429</t>
+  </si>
+  <si>
+    <t>cleatef@addthis.com</t>
+  </si>
+  <si>
+    <t>8410 Banding Circle</t>
+  </si>
+  <si>
+    <t>สันทราย</t>
+  </si>
+  <si>
+    <t>tc119</t>
+  </si>
+  <si>
+    <t>ลอเรนส์</t>
+  </si>
+  <si>
+    <t>โรเซนเฟลเดอร์</t>
+  </si>
+  <si>
+    <t>Laurens</t>
+  </si>
+  <si>
+    <t>Rosenfelder</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>170040123474</t>
+  </si>
+  <si>
+    <t>mY0#Z#CuGr&amp;</t>
+  </si>
+  <si>
+    <t>0716153298</t>
+  </si>
+  <si>
+    <t>lrosenfelderg@mapy.cz</t>
+  </si>
+  <si>
+    <t>9937 Melody Drive</t>
+  </si>
+  <si>
+    <t>ระนอง</t>
+  </si>
+  <si>
+    <t>เมืองระนอง</t>
+  </si>
+  <si>
+    <t>กะเปอร์</t>
+  </si>
+  <si>
+    <t>85000</t>
+  </si>
+  <si>
+    <t>tc120</t>
+  </si>
+  <si>
+    <t>แอ็บบอตต์</t>
+  </si>
+  <si>
+    <t>คาร์เลตต์</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>Carlett</t>
+  </si>
+  <si>
+    <t>170040123475</t>
+  </si>
+  <si>
+    <t>eW7`FZ/{8wJ`i/D</t>
+  </si>
+  <si>
+    <t>0719457167</t>
+  </si>
+  <si>
+    <t>acarletth@phpbb.com</t>
+  </si>
+  <si>
+    <t>63 Manley Trail</t>
+  </si>
+  <si>
+    <t>ตาก</t>
+  </si>
+  <si>
+    <t>เมืองตาก</t>
+  </si>
+  <si>
+    <t>แม่ปะ</t>
+  </si>
+  <si>
+    <t>63000</t>
+  </si>
+  <si>
+    <t>tc121</t>
+  </si>
+  <si>
+    <t>โซโฟรอนเนีย</t>
+  </si>
+  <si>
+    <t>โบลส์เวิร์ธ</t>
+  </si>
+  <si>
+    <t>Sophronia</t>
+  </si>
+  <si>
+    <t>Bolesworth</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>170040123476</t>
+  </si>
+  <si>
+    <t>jZ5'?&gt;{0D/cvGvh&gt;</t>
+  </si>
+  <si>
+    <t>0722761036</t>
+  </si>
+  <si>
+    <t>sbolesworthi@bravesites.com</t>
+  </si>
+  <si>
+    <t>648 Springview Terrace</t>
+  </si>
+  <si>
+    <t>มหาสารคาม</t>
+  </si>
+  <si>
+    <t>เมืองมหาสารคาม</t>
+  </si>
+  <si>
+    <t>ปทุม</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>tc122</t>
+  </si>
+  <si>
+    <t>เมเจน</t>
+  </si>
+  <si>
+    <t>ซาลล์</t>
+  </si>
+  <si>
+    <t>Megen</t>
+  </si>
+  <si>
+    <t>Salle</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>170040123477</t>
+  </si>
+  <si>
+    <t>jZ1.&lt;(\L.A#</t>
+  </si>
+  <si>
+    <t>0726064905</t>
+  </si>
+  <si>
+    <t>msallej@princeton.edu</t>
+  </si>
+  <si>
+    <t>32 Spenser Junction</t>
+  </si>
+  <si>
+    <t>จันทบุรี</t>
+  </si>
+  <si>
+    <t>เมืองจันทบุรี</t>
+  </si>
+  <si>
+    <t>วัดใหม่</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>tc123</t>
+  </si>
+  <si>
+    <t>ฟิลเบิร์ต</t>
+  </si>
+  <si>
+    <t>เออร์รี</t>
+  </si>
+  <si>
+    <t>Filbert</t>
+  </si>
+  <si>
+    <t>Urry</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>170040123478</t>
+  </si>
+  <si>
+    <t>qD6#J,u1Te31qS@</t>
+  </si>
+  <si>
+    <t>0729368774</t>
+  </si>
+  <si>
+    <t>furryk@ftc.gov</t>
+  </si>
+  <si>
+    <t>10 Katie Court</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
+    <t>เมืองปทุมธานี</t>
+  </si>
+  <si>
+    <t>คูขวาง</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>tc124</t>
+  </si>
+  <si>
+    <t>รีซ</t>
+  </si>
+  <si>
+    <t>ไดม็อก</t>
+  </si>
+  <si>
+    <t>Reece</t>
+  </si>
+  <si>
+    <t>Dymock</t>
+  </si>
+  <si>
+    <t>170040123479</t>
+  </si>
+  <si>
+    <t>fF4)56iy.(0</t>
+  </si>
+  <si>
+    <t>0732672643</t>
+  </si>
+  <si>
+    <t>rdymockl@seattletimes.com</t>
+  </si>
+  <si>
+    <t>36148 Maywood Drive</t>
+  </si>
+  <si>
+    <t>พังงา</t>
+  </si>
+  <si>
+    <t>เมืองพังงา</t>
+  </si>
+  <si>
+    <t>ท้ายเหมือง</t>
+  </si>
+  <si>
+    <t>82000</t>
+  </si>
+  <si>
+    <t>tc125</t>
+  </si>
+  <si>
+    <t>เบงท์</t>
+  </si>
+  <si>
+    <t>สเวลส์</t>
+  </si>
+  <si>
+    <t>Bengt</t>
+  </si>
+  <si>
+    <t>Swales</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>170040123480</t>
+  </si>
+  <si>
+    <t>tU0?%F,Yzu}hGOh</t>
+  </si>
+  <si>
+    <t>0735976512</t>
+  </si>
+  <si>
+    <t>bswalesm@reddit.com</t>
+  </si>
+  <si>
+    <t>572 Clarendon Junction</t>
+  </si>
+  <si>
+    <t>กระบี่</t>
+  </si>
+  <si>
+    <t>เมืองกระบี่</t>
+  </si>
+  <si>
+    <t>กระบี่ใหญ่</t>
+  </si>
+  <si>
+    <t>81000</t>
+  </si>
+  <si>
+    <t>tc126</t>
+  </si>
+  <si>
+    <t>ชอว์นีย์</t>
+  </si>
+  <si>
+    <t>เบนนีย์เวิร์ธ</t>
+  </si>
+  <si>
+    <t>Shawnee</t>
+  </si>
+  <si>
+    <t>Benneyworth</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>170040123481</t>
+  </si>
+  <si>
+    <t>jZ1+J`X,d0F\</t>
+  </si>
+  <si>
+    <t>0739280381</t>
+  </si>
+  <si>
+    <t>sbenneyworthn@timesonline.co.uk</t>
+  </si>
+  <si>
+    <t>40 4th Place</t>
+  </si>
+  <si>
+    <t>เนินพระ</t>
+  </si>
+  <si>
+    <t>21120</t>
+  </si>
+  <si>
+    <t>tc127</t>
+  </si>
+  <si>
+    <t>ออนโฟรอี</t>
+  </si>
+  <si>
+    <t>อันเดอร์ฮิลล์</t>
+  </si>
+  <si>
+    <t>Onfroi</t>
+  </si>
+  <si>
+    <t>Underhill</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>170040123482</t>
+  </si>
+  <si>
+    <t>yB7(9,M=n~{cVB</t>
+  </si>
+  <si>
+    <t>0742584250</t>
+  </si>
+  <si>
+    <t>ounderhillo@huffingtonpost.com</t>
+  </si>
+  <si>
+    <t>62 Fieldstone Parkway</t>
+  </si>
+  <si>
+    <t>tc128</t>
+  </si>
+  <si>
+    <t>วิลลิส</t>
+  </si>
+  <si>
+    <t>เกรนนัน</t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>Grennan</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>170040123483</t>
+  </si>
+  <si>
+    <t>fR1&amp;FHMK</t>
+  </si>
+  <si>
+    <t>0745888119</t>
+  </si>
+  <si>
+    <t>wgrennanp@hc360.com</t>
+  </si>
+  <si>
+    <t>5 Bellgrove Lane</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>เมืองอ่างทอง</t>
+  </si>
+  <si>
+    <t>ป่าโมก</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>tc129</t>
+  </si>
+  <si>
+    <t>คริสตี้</t>
+  </si>
+  <si>
+    <t>Christye</t>
+  </si>
+  <si>
+    <t>170040123484</t>
+  </si>
+  <si>
+    <t>nK5(7F6x)B"a$ux</t>
+  </si>
+  <si>
+    <t>0749191988</t>
+  </si>
+  <si>
+    <t>cbenneyworthq@timesonline.co.uk</t>
+  </si>
+  <si>
+    <t>75 Moland Plaza</t>
+  </si>
+  <si>
+    <t>สระบุรีใต้</t>
+  </si>
+  <si>
+    <t>tc130</t>
+  </si>
+  <si>
+    <t>สกิปเปอร์</t>
+  </si>
+  <si>
+    <t>แวน เดอร์ ดาล</t>
+  </si>
+  <si>
+    <t>Skipper</t>
+  </si>
+  <si>
+    <t>Van der Daal</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>170040123485</t>
+  </si>
+  <si>
+    <t>uB8_ui)5</t>
+  </si>
+  <si>
+    <t>0752495857</t>
+  </si>
+  <si>
+    <t>svanderdaalr@cloudflare.com</t>
+  </si>
+  <si>
+    <t>64 Dexter Road</t>
+  </si>
+  <si>
+    <t>สิงห์บุรี</t>
+  </si>
+  <si>
+    <t>เมืองสิงห์บุรี</t>
+  </si>
+  <si>
+    <t>ตลิ่งชัน</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>tc131</t>
+  </si>
+  <si>
+    <t>นิโคล</t>
+  </si>
+  <si>
+    <t>เกอร์ดท์</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Gerdts</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>170040123486</t>
+  </si>
+  <si>
+    <t>mE8'H="U|5l(6</t>
+  </si>
+  <si>
+    <t>0755799726</t>
+  </si>
+  <si>
+    <t>ngerdtss@freewebs.com</t>
+  </si>
+  <si>
+    <t>1763 Derek Plaza</t>
+  </si>
+  <si>
+    <t>นครพนม</t>
+  </si>
+  <si>
+    <t>เมืองนครพนม</t>
+  </si>
+  <si>
+    <t>ท่าจำปา</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>tc132</t>
+  </si>
+  <si>
+    <t>เซอร์เกย์</t>
+  </si>
+  <si>
+    <t>ดัทสัน</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Dutson</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>170040123487</t>
+  </si>
+  <si>
+    <t>nD6?IK+|I</t>
+  </si>
+  <si>
+    <t>0759103595</t>
+  </si>
+  <si>
+    <t>sdutsont@yellowpages.com</t>
+  </si>
+  <si>
+    <t>52 Troy Plaza</t>
+  </si>
+  <si>
+    <t>บัวเชด</t>
+  </si>
+  <si>
+    <t>tc133</t>
+  </si>
+  <si>
+    <t>เอมาลี</t>
+  </si>
+  <si>
+    <t>รูเกน</t>
+  </si>
+  <si>
+    <t>Emalee</t>
+  </si>
+  <si>
+    <t>Ruggen</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>170040123488</t>
+  </si>
+  <si>
+    <t>vZ5,hQsjF</t>
+  </si>
+  <si>
+    <t>0762407464</t>
+  </si>
+  <si>
+    <t>eruggenu@chronoengine.com</t>
+  </si>
+  <si>
+    <t>5 Glendale Alley</t>
+  </si>
+  <si>
+    <t>เพชรบูรณ์</t>
+  </si>
+  <si>
+    <t>เมืองเพชรบูรณ์</t>
+  </si>
+  <si>
+    <t>หนองไข่น้ำ</t>
+  </si>
+  <si>
+    <t>67000</t>
+  </si>
+  <si>
+    <t>tc134</t>
+  </si>
+  <si>
+    <t>อัลลิอานอร่า</t>
+  </si>
+  <si>
+    <t>เรดไมร์</t>
+  </si>
+  <si>
+    <t>Allianora</t>
+  </si>
+  <si>
+    <t>Redmire</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>170040123489</t>
+  </si>
+  <si>
+    <t>oG9+yz=NvJ</t>
+  </si>
+  <si>
+    <t>0765711333</t>
+  </si>
+  <si>
+    <t>aredmirev@lycos.com</t>
+  </si>
+  <si>
+    <t>1 Northview Parkway</t>
+  </si>
+  <si>
+    <t>เมืองใหม่</t>
+  </si>
+  <si>
+    <t>tc135</t>
+  </si>
+  <si>
+    <t>แอนเจล</t>
+  </si>
+  <si>
+    <t>แมสซิงแฮม</t>
+  </si>
+  <si>
+    <t>Angele</t>
+  </si>
+  <si>
+    <t>Massingham</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>170040123490</t>
+  </si>
+  <si>
+    <t>rV4&lt;#!jVn9</t>
+  </si>
+  <si>
+    <t>0769015202</t>
+  </si>
+  <si>
+    <t>amassinghamw@state.tx.us</t>
+  </si>
+  <si>
+    <t>9 Mayer Terrace</t>
+  </si>
+  <si>
+    <t>tc136</t>
+  </si>
+  <si>
+    <t>โคลเล็ตต์</t>
+  </si>
+  <si>
+    <t>ฟาร์ดี</t>
+  </si>
+  <si>
+    <t>Chloette</t>
+  </si>
+  <si>
+    <t>Fardy</t>
+  </si>
+  <si>
+    <t>170040123491</t>
+  </si>
+  <si>
+    <t>lV2&lt;\Q2g+EINgdUT</t>
+  </si>
+  <si>
+    <t>0772319071</t>
+  </si>
+  <si>
+    <t>cfardyx@uol.com.br</t>
+  </si>
+  <si>
+    <t>47476 Golf View Lane</t>
+  </si>
+  <si>
+    <t>อุบลราชธานี</t>
+  </si>
+  <si>
+    <t>เมืองอุบลราชธานี</t>
+  </si>
+  <si>
+    <t>ท่ามะไฟ</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>tc137</t>
+  </si>
+  <si>
+    <t>คลารินดา</t>
+  </si>
+  <si>
+    <t>วูตัน</t>
+  </si>
+  <si>
+    <t>Clarinda</t>
+  </si>
+  <si>
+    <t>Wootton</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>170040123492</t>
+  </si>
+  <si>
+    <t>eJ4~W#.XlG|"</t>
+  </si>
+  <si>
+    <t>0775622940</t>
+  </si>
+  <si>
+    <t>cwoottony@cbc.ca</t>
+  </si>
+  <si>
+    <t>13 Mariners Cove Way</t>
+  </si>
+  <si>
+    <t>เชียงราย</t>
+  </si>
+  <si>
+    <t>เมืองเชียงราย</t>
+  </si>
+  <si>
+    <t>บ้านดู่</t>
+  </si>
+  <si>
+    <t>57100</t>
+  </si>
+  <si>
+    <t>tc138</t>
+  </si>
+  <si>
+    <t>ฮันนี</t>
+  </si>
+  <si>
+    <t>เบอร์กอตต์</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Burgot</t>
+  </si>
+  <si>
+    <t>170040123493</t>
+  </si>
+  <si>
+    <t>uN0)4bE!Ct</t>
+  </si>
+  <si>
+    <t>0778926809</t>
+  </si>
+  <si>
+    <t>hburgotz@mashable.com</t>
+  </si>
+  <si>
+    <t>9 Arapahoe Center</t>
+  </si>
+  <si>
+    <t>หนองขาม</t>
+  </si>
+  <si>
+    <t>tc139</t>
+  </si>
+  <si>
+    <t>โทมัสซีน่า</t>
+  </si>
+  <si>
+    <t>โกอัลลี</t>
+  </si>
+  <si>
+    <t>Tomasina</t>
+  </si>
+  <si>
+    <t>Goalley</t>
+  </si>
+  <si>
+    <t>170040123494</t>
+  </si>
+  <si>
+    <t>zX5+&amp;e&amp;B)Vgt</t>
+  </si>
+  <si>
+    <t>0782230678</t>
+  </si>
+  <si>
+    <t>tgoalley10@google.com.au</t>
+  </si>
+  <si>
+    <t>31015 Morningstar Drive</t>
+  </si>
+  <si>
+    <t>โชคชัย</t>
+  </si>
+  <si>
+    <t>tc140</t>
+  </si>
+  <si>
+    <t>ลอร่า</t>
+  </si>
+  <si>
+    <t>โอลีเวียร์</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>170040123495</t>
+  </si>
+  <si>
+    <t>sU0{h9I&amp;QjL`</t>
+  </si>
+  <si>
+    <t>0785534547</t>
+  </si>
+  <si>
+    <t>lolivier11@vistaprint.com</t>
+  </si>
+  <si>
+    <t>568 Westerfield Crossing</t>
+  </si>
+  <si>
+    <t>หนองแวง</t>
+  </si>
+  <si>
+    <t>tc141</t>
+  </si>
+  <si>
+    <t>อินเกเบิร์ก</t>
+  </si>
+  <si>
+    <t>สคริปเจอร์</t>
+  </si>
+  <si>
+    <t>Ingeberg</t>
+  </si>
+  <si>
+    <t>Scripture</t>
+  </si>
+  <si>
+    <t>170040123496</t>
+  </si>
+  <si>
+    <t>qV2&amp;$KGU4}E8p</t>
+  </si>
+  <si>
+    <t>0788838416</t>
+  </si>
+  <si>
+    <t>iscripture12@prweb.com</t>
+  </si>
+  <si>
+    <t>6 Old Shore Parkway</t>
+  </si>
+  <si>
+    <t>แม่ปิง</t>
+  </si>
+  <si>
+    <t>tc142</t>
+  </si>
+  <si>
+    <t>เอมมิท</t>
+  </si>
+  <si>
+    <t>รัคคลิดจ์</t>
+  </si>
+  <si>
+    <t>Emmit</t>
+  </si>
+  <si>
+    <t>Rucklidge</t>
+  </si>
+  <si>
+    <t>170040123497</t>
+  </si>
+  <si>
+    <t>qJ5?rH&gt;h7F</t>
+  </si>
+  <si>
+    <t>0792142285</t>
+  </si>
+  <si>
+    <t>erucklidge13@xrea.com</t>
+  </si>
+  <si>
+    <t>719 Dottie Junction</t>
+  </si>
+  <si>
+    <t>คลองแห</t>
+  </si>
+  <si>
+    <t>tc143</t>
+  </si>
+  <si>
+    <t>บรอนสัน</t>
+  </si>
+  <si>
+    <t>ไลท์บอร์น</t>
+  </si>
+  <si>
+    <t>Bronson</t>
+  </si>
+  <si>
+    <t>Lightbourn</t>
+  </si>
+  <si>
+    <t>170040123498</t>
+  </si>
+  <si>
+    <t>yT6|6ra0</t>
+  </si>
+  <si>
+    <t>0795446154</t>
+  </si>
+  <si>
+    <t>blightbourn14@japanpost.jp</t>
+  </si>
+  <si>
+    <t>78419 Nobel Center</t>
+  </si>
+  <si>
+    <t>หนองตูม</t>
+  </si>
+  <si>
+    <t>tc144</t>
+  </si>
+  <si>
+    <t>ฮิลลารี</t>
+  </si>
+  <si>
+    <t>บ็อกเกส</t>
+  </si>
+  <si>
+    <t>Hillary</t>
+  </si>
+  <si>
+    <t>Bogges</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>170040123499</t>
+  </si>
+  <si>
+    <t>tK7@(x,&gt;Pl_o%GFY</t>
+  </si>
+  <si>
+    <t>0798750023</t>
+  </si>
+  <si>
+    <t>hbogges15@linkedin.com</t>
+  </si>
+  <si>
+    <t>5 Grasskamp Avenue</t>
+  </si>
+  <si>
+    <t>ลำพูน</t>
+  </si>
+  <si>
+    <t>เมืองลำปูน</t>
+  </si>
+  <si>
+    <t>ลี้</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>tc145</t>
+  </si>
+  <si>
+    <t>แจ็กกี้</t>
+  </si>
+  <si>
+    <t>วิธคอมบ์</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Whitcomb</t>
+  </si>
+  <si>
+    <t>170040123500</t>
+  </si>
+  <si>
+    <t>tM1$Qv&amp;OrL=Mg%AG</t>
+  </si>
+  <si>
+    <t>0802053892</t>
+  </si>
+  <si>
+    <t>jwhitcomb16@miibeian.gov.cn</t>
+  </si>
+  <si>
+    <t>43 Vidon Place</t>
+  </si>
+  <si>
+    <t>เพชรบุรี</t>
+  </si>
+  <si>
+    <t>เมืองเพชรบุรี</t>
+  </si>
+  <si>
+    <t>ห้วยเหนือ</t>
+  </si>
+  <si>
+    <t>76000</t>
+  </si>
+  <si>
+    <t>tc146</t>
+  </si>
+  <si>
+    <t>โรซามอนด์</t>
+  </si>
+  <si>
+    <t>โอ'โรวาน</t>
+  </si>
+  <si>
+    <t>Rosamond</t>
+  </si>
+  <si>
+    <t>O'Rowane</t>
+  </si>
+  <si>
+    <t>170040123501</t>
+  </si>
+  <si>
+    <t>xV6_5u#Ch7Z&lt;yl</t>
+  </si>
+  <si>
+    <t>0805357761</t>
+  </si>
+  <si>
+    <t>rorowane17@parallels.com</t>
+  </si>
+  <si>
+    <t>496 Sachtjen Pass</t>
+  </si>
+  <si>
+    <t>สุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>เมืองสุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>ทับตีเหล็ก</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>tc147</t>
+  </si>
+  <si>
+    <t>ฟิลเมอร์</t>
+  </si>
+  <si>
+    <t>เจฟฟรีย์</t>
+  </si>
+  <si>
+    <t>Filmer</t>
+  </si>
+  <si>
+    <t>Jeffreys</t>
+  </si>
+  <si>
+    <t>170040123502</t>
+  </si>
+  <si>
+    <t>iO9'B8cL66</t>
+  </si>
+  <si>
+    <t>0808661630</t>
+  </si>
+  <si>
+    <t>fjeffreys18@technorati.com</t>
+  </si>
+  <si>
+    <t>0 Nelson Way</t>
+  </si>
+  <si>
+    <t>ห้วยสัก</t>
+  </si>
+  <si>
+    <t>tc148</t>
+  </si>
+  <si>
+    <t>เฟิร์น</t>
+  </si>
+  <si>
+    <t>เฟรดี้</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>170040123503</t>
+  </si>
+  <si>
+    <t>eI0%uO6WZ0uJBX</t>
+  </si>
+  <si>
+    <t>0811965499</t>
+  </si>
+  <si>
+    <t>ffredy19@hc360.com</t>
+  </si>
+  <si>
+    <t>81234 3rd Terrace</t>
+  </si>
+  <si>
+    <t>บ้านกอก</t>
+  </si>
+  <si>
+    <t>tc149</t>
+  </si>
+  <si>
+    <t>เออร์ม่า</t>
+  </si>
+  <si>
+    <t>คิตเตอร์</t>
+  </si>
+  <si>
+    <t>Erma</t>
+  </si>
+  <si>
+    <t>Kytter</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>170040123504</t>
+  </si>
+  <si>
+    <t>cD4$CE*gz40</t>
+  </si>
+  <si>
+    <t>0815269368</t>
+  </si>
+  <si>
+    <t>ekytter1a@phoca.cz</t>
+  </si>
+  <si>
+    <t>tc150</t>
+  </si>
+  <si>
+    <t>ซินดี้</t>
+  </si>
+  <si>
+    <t>บูสต์</t>
+  </si>
+  <si>
+    <t>Cyndy</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>170040123505</t>
+  </si>
+  <si>
+    <t>sG0?2j,%!5+pETC</t>
+  </si>
+  <si>
+    <t>0818573237</t>
+  </si>
+  <si>
+    <t>cboost1b@liveinternet.ru</t>
+  </si>
+  <si>
+    <t>tc151</t>
+  </si>
+  <si>
+    <t>แคนดิดา</t>
+  </si>
+  <si>
+    <t>รัสกิน</t>
+  </si>
+  <si>
+    <t>Candida</t>
+  </si>
+  <si>
+    <t>Ruskin</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>170040123506</t>
+  </si>
+  <si>
+    <t>mP4|%\K&gt;=oZzb</t>
+  </si>
+  <si>
+    <t>0821877106</t>
+  </si>
+  <si>
+    <t>cruskin1c@homestead.com</t>
+  </si>
+  <si>
+    <t>tc152</t>
+  </si>
+  <si>
+    <t>ลูกัส</t>
+  </si>
+  <si>
+    <t>เพาทิน</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Pountain</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>170040123507</t>
+  </si>
+  <si>
+    <t>uT6(+Rr*"W~i4tj</t>
+  </si>
+  <si>
+    <t>0825180975</t>
+  </si>
+  <si>
+    <t>lpountain1d@nps.gov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -184,6 +2272,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,7 +2298,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -217,13 +2309,19 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,27 +2641,26 @@
       <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="str">
-        <f>"0656683656"</f>
-        <v>0656683656</v>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="T2" s="2" t="b">
         <v>1</v>
@@ -571,88 +2668,3172 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="str">
-        <f>"0659987525"</f>
-        <v>0659987525</v>
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="T3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="T15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="T16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="T17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="T18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="T21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="T22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="T23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="T24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="T25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="T26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="T27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="T29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="T31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="T32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="T33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="T34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="T37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="T38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="T45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="T46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="T47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="T48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="T49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="T50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="T51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="T52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="T53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/excel/testdata.xlsx
+++ b/excel/testdata.xlsx
@@ -103,7 +103,7 @@
     <t>2004</t>
   </si>
   <si>
-    <t>170040123456</t>
+    <t>1700401234560</t>
   </si>
   <si>
     <t>wisarut1234</t>
@@ -160,7 +160,7 @@
     <t>2005</t>
   </si>
   <si>
-    <t>170040123457</t>
+    <t>1700401234561</t>
   </si>
   <si>
     <t>somying1234</t>
@@ -211,10 +211,10 @@
     <t>1993</t>
   </si>
   <si>
-    <t>170040123458</t>
-  </si>
-  <si>
-    <t>pM2!s9"f#4OC}</t>
+    <t>1700401234562</t>
+  </si>
+  <si>
+    <t>user1234</t>
   </si>
   <si>
     <t>0663291394</t>
@@ -268,10 +268,10 @@
     <t>1979</t>
   </si>
   <si>
-    <t>170040123459</t>
-  </si>
-  <si>
-    <t>lB7~qo2x89Ef</t>
+    <t>1700401234563</t>
+  </si>
+  <si>
+    <t>user1235</t>
   </si>
   <si>
     <t>0666595263</t>
@@ -313,10 +313,10 @@
     <t>2010</t>
   </si>
   <si>
-    <t>170040123460</t>
-  </si>
-  <si>
-    <t>qV1&gt;Bj1$EQMmTi</t>
+    <t>1700401234564</t>
+  </si>
+  <si>
+    <t>user1236</t>
   </si>
   <si>
     <t>0669899132</t>
@@ -361,10 +361,10 @@
     <t>1970</t>
   </si>
   <si>
-    <t>170040123461</t>
-  </si>
-  <si>
-    <t>jM3.a2k5</t>
+    <t>1700401234565</t>
+  </si>
+  <si>
+    <t>user1237</t>
   </si>
   <si>
     <t>0673203001</t>
@@ -406,346 +406,346 @@
     <t>30</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1700401234566</t>
+  </si>
+  <si>
+    <t>user1238</t>
+  </si>
+  <si>
+    <t>0676506870</t>
+  </si>
+  <si>
+    <t>rpearcehouse4@ft.com</t>
+  </si>
+  <si>
+    <t>9 Northfield Court</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>เมืองขอนแก่น</t>
+  </si>
+  <si>
+    <t>ในเมือง</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>tc108</t>
+  </si>
+  <si>
+    <t>เมิร์ล</t>
+  </si>
+  <si>
+    <t>อาร์มิเกอร์</t>
+  </si>
+  <si>
+    <t>Myrle</t>
+  </si>
+  <si>
+    <t>Armiger</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1700401234567</t>
+  </si>
+  <si>
+    <t>user1239</t>
+  </si>
+  <si>
+    <t>0679810739</t>
+  </si>
+  <si>
+    <t>marmiger5@purevolume.com</t>
+  </si>
+  <si>
+    <t>50 East Street</t>
+  </si>
+  <si>
+    <t>สระบุรี</t>
+  </si>
+  <si>
+    <t>เมืองสระบุรี</t>
+  </si>
+  <si>
+    <t>ท่าข้าม</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>tc109</t>
+  </si>
+  <si>
+    <t>รอนนี</t>
+  </si>
+  <si>
+    <t>ออร์เฟอร์</t>
+  </si>
+  <si>
+    <t>Ronnie</t>
+  </si>
+  <si>
+    <t>Orfeur</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1700401234568</t>
+  </si>
+  <si>
+    <t>user1240</t>
+  </si>
+  <si>
+    <t>0683114608</t>
+  </si>
+  <si>
+    <t>rorfeur6@seesaa.net</t>
+  </si>
+  <si>
+    <t>76 Clove Plaza</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>เมืองสุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>มะขามเตี้ย</t>
+  </si>
+  <si>
+    <t>84000</t>
+  </si>
+  <si>
+    <t>tc110</t>
+  </si>
+  <si>
+    <t>ไทเบิลท์</t>
+  </si>
+  <si>
+    <t>โอ'ไดวอย</t>
+  </si>
+  <si>
+    <t>Tybalt</t>
+  </si>
+  <si>
+    <t>O'Dyvoy</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1700401234569</t>
+  </si>
+  <si>
+    <t>user1241</t>
+  </si>
+  <si>
+    <t>0686418477</t>
+  </si>
+  <si>
+    <t>todyvoy7@pen.io</t>
+  </si>
+  <si>
+    <t>723 Grasskamp Park</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>เมืองอุดรธานี</t>
+  </si>
+  <si>
+    <t>หมากแข้ง</t>
+  </si>
+  <si>
+    <t>41000</t>
+  </si>
+  <si>
+    <t>tc111</t>
+  </si>
+  <si>
+    <t>โธมัสซีน่า</t>
+  </si>
+  <si>
+    <t>พิตต์สัน</t>
+  </si>
+  <si>
+    <t>Thomasina</t>
+  </si>
+  <si>
+    <t>Pittson</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1700401234570</t>
+  </si>
+  <si>
+    <t>user1242</t>
+  </si>
+  <si>
+    <t>0689722346</t>
+  </si>
+  <si>
+    <t>tpittson8@house.gov</t>
+  </si>
+  <si>
+    <t>76 North Trail</t>
+  </si>
+  <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>เมืองสงขลา</t>
+  </si>
+  <si>
+    <t>หาดใหญ่</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>tc112</t>
+  </si>
+  <si>
+    <t>ลิดี</t>
+  </si>
+  <si>
+    <t>คิพปิ้ง</t>
+  </si>
+  <si>
+    <t>Lydie</t>
+  </si>
+  <si>
+    <t>Kipping</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1700401234571</t>
+  </si>
+  <si>
+    <t>user1243</t>
+  </si>
+  <si>
+    <t>0693026215</t>
+  </si>
+  <si>
+    <t>lkipping9@arstechnica.com</t>
+  </si>
+  <si>
+    <t>04 Bluejay Circle</t>
+  </si>
+  <si>
+    <t>สกลนคร</t>
+  </si>
+  <si>
+    <t>เมืองสกลนคร</t>
+  </si>
+  <si>
+    <t>คูเมือง</t>
+  </si>
+  <si>
+    <t>47000</t>
+  </si>
+  <si>
+    <t>tc113</t>
+  </si>
+  <si>
+    <t>อิบราฮิม</t>
+  </si>
+  <si>
+    <t>มาร์ล</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Marl</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1700401234572</t>
+  </si>
+  <si>
+    <t>user1244</t>
+  </si>
+  <si>
+    <t>0696330084</t>
+  </si>
+  <si>
+    <t>imarla@huffingtonpost.com</t>
+  </si>
+  <si>
+    <t>22 Hovde Terrace</t>
+  </si>
+  <si>
+    <t>พิษณุโลก</t>
+  </si>
+  <si>
+    <t>เมืองพิษณุโลก</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>tc114</t>
+  </si>
+  <si>
+    <t>รีวา</t>
+  </si>
+  <si>
+    <t>ลอนเดอร์</t>
+  </si>
+  <si>
+    <t>Reeva</t>
+  </si>
+  <si>
+    <t>Londer</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>170040123462</t>
-  </si>
-  <si>
-    <t>mD1`X"PumhkB'|</t>
-  </si>
-  <si>
-    <t>0676506870</t>
-  </si>
-  <si>
-    <t>rpearcehouse4@ft.com</t>
-  </si>
-  <si>
-    <t>9 Northfield Court</t>
-  </si>
-  <si>
-    <t>ขอนแก่น</t>
-  </si>
-  <si>
-    <t>เมืองขอนแก่น</t>
-  </si>
-  <si>
-    <t>ในเมือง</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>tc108</t>
-  </si>
-  <si>
-    <t>เมิร์ล</t>
-  </si>
-  <si>
-    <t>อาร์มิเกอร์</t>
-  </si>
-  <si>
-    <t>Myrle</t>
-  </si>
-  <si>
-    <t>Armiger</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>170040123463</t>
-  </si>
-  <si>
-    <t>nE3{7bMvA</t>
-  </si>
-  <si>
-    <t>0679810739</t>
-  </si>
-  <si>
-    <t>marmiger5@purevolume.com</t>
-  </si>
-  <si>
-    <t>50 East Street</t>
-  </si>
-  <si>
-    <t>สระบุรี</t>
-  </si>
-  <si>
-    <t>เมืองสระบุรี</t>
-  </si>
-  <si>
-    <t>ท่าข้าม</t>
-  </si>
-  <si>
-    <t>18000</t>
-  </si>
-  <si>
-    <t>tc109</t>
-  </si>
-  <si>
-    <t>รอนนี</t>
-  </si>
-  <si>
-    <t>ออร์เฟอร์</t>
-  </si>
-  <si>
-    <t>Ronnie</t>
-  </si>
-  <si>
-    <t>Orfeur</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>170040123464</t>
-  </si>
-  <si>
-    <t>dN8'V}LZ{`</t>
-  </si>
-  <si>
-    <t>0683114608</t>
-  </si>
-  <si>
-    <t>rorfeur6@seesaa.net</t>
-  </si>
-  <si>
-    <t>76 Clove Plaza</t>
-  </si>
-  <si>
-    <t>สุราษฎร์ธานี</t>
-  </si>
-  <si>
-    <t>เมืองสุราษฎร์ธานี</t>
-  </si>
-  <si>
-    <t>มะขามเตี้ย</t>
-  </si>
-  <si>
-    <t>84000</t>
-  </si>
-  <si>
-    <t>tc110</t>
-  </si>
-  <si>
-    <t>ไทเบิลท์</t>
-  </si>
-  <si>
-    <t>โอ'ไดวอย</t>
-  </si>
-  <si>
-    <t>Tybalt</t>
-  </si>
-  <si>
-    <t>O'Dyvoy</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>170040123465</t>
-  </si>
-  <si>
-    <t>pO2$YXh.}WS=s</t>
-  </si>
-  <si>
-    <t>0686418477</t>
-  </si>
-  <si>
-    <t>todyvoy7@pen.io</t>
-  </si>
-  <si>
-    <t>723 Grasskamp Park</t>
-  </si>
-  <si>
-    <t>อุดรธานี</t>
-  </si>
-  <si>
-    <t>เมืองอุดรธานี</t>
-  </si>
-  <si>
-    <t>หมากแข้ง</t>
-  </si>
-  <si>
-    <t>41000</t>
-  </si>
-  <si>
-    <t>tc111</t>
-  </si>
-  <si>
-    <t>โธมัสซีน่า</t>
-  </si>
-  <si>
-    <t>พิตต์สัน</t>
-  </si>
-  <si>
-    <t>Thomasina</t>
-  </si>
-  <si>
-    <t>Pittson</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>170040123466</t>
-  </si>
-  <si>
-    <t>gU1}8$Ko(9</t>
-  </si>
-  <si>
-    <t>0689722346</t>
-  </si>
-  <si>
-    <t>tpittson8@house.gov</t>
-  </si>
-  <si>
-    <t>76 North Trail</t>
-  </si>
-  <si>
-    <t>สงขลา</t>
-  </si>
-  <si>
-    <t>เมืองสงขลา</t>
-  </si>
-  <si>
-    <t>หาดใหญ่</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>tc112</t>
-  </si>
-  <si>
-    <t>ลิดี</t>
-  </si>
-  <si>
-    <t>คิพปิ้ง</t>
-  </si>
-  <si>
-    <t>Lydie</t>
-  </si>
-  <si>
-    <t>Kipping</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>170040123467</t>
-  </si>
-  <si>
-    <t>wE5)*d8RVn</t>
-  </si>
-  <si>
-    <t>0693026215</t>
-  </si>
-  <si>
-    <t>lkipping9@arstechnica.com</t>
-  </si>
-  <si>
-    <t>04 Bluejay Circle</t>
-  </si>
-  <si>
-    <t>สกลนคร</t>
-  </si>
-  <si>
-    <t>เมืองสกลนคร</t>
-  </si>
-  <si>
-    <t>คูเมือง</t>
-  </si>
-  <si>
-    <t>47000</t>
-  </si>
-  <si>
-    <t>tc113</t>
-  </si>
-  <si>
-    <t>อิบราฮิม</t>
-  </si>
-  <si>
-    <t>มาร์ล</t>
-  </si>
-  <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
-    <t>Marl</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>170040123468</t>
-  </si>
-  <si>
-    <t>fD2~pQr1p1*4n</t>
-  </si>
-  <si>
-    <t>0696330084</t>
-  </si>
-  <si>
-    <t>imarla@huffingtonpost.com</t>
-  </si>
-  <si>
-    <t>22 Hovde Terrace</t>
-  </si>
-  <si>
-    <t>พิษณุโลก</t>
-  </si>
-  <si>
-    <t>เมืองพิษณุโลก</t>
-  </si>
-  <si>
-    <t>65000</t>
-  </si>
-  <si>
-    <t>tc114</t>
-  </si>
-  <si>
-    <t>รีวา</t>
-  </si>
-  <si>
-    <t>ลอนเดอร์</t>
-  </si>
-  <si>
-    <t>Reeva</t>
-  </si>
-  <si>
-    <t>Londer</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>1978</t>
   </si>
   <si>
-    <t>170040123469</t>
-  </si>
-  <si>
-    <t>kB5{Jw%kas7k#</t>
+    <t>1700401234573</t>
+  </si>
+  <si>
+    <t>user1245</t>
   </si>
   <si>
     <t>0699633953</t>
@@ -790,10 +790,10 @@
     <t>1998</t>
   </si>
   <si>
-    <t>170040123470</t>
-  </si>
-  <si>
-    <t>pI8'WREM1CO</t>
+    <t>1700401234574</t>
+  </si>
+  <si>
+    <t>user1246</t>
   </si>
   <si>
     <t>0702937822</t>
@@ -832,10 +832,10 @@
     <t>Ettery</t>
   </si>
   <si>
-    <t>170040123471</t>
-  </si>
-  <si>
-    <t>pS8`f8wnX</t>
+    <t>1700401234575</t>
+  </si>
+  <si>
+    <t>user1247</t>
   </si>
   <si>
     <t>0706241691</t>
@@ -877,10 +877,10 @@
     <t>1973</t>
   </si>
   <si>
-    <t>170040123472</t>
-  </si>
-  <si>
-    <t>bR4@LYzgQL@`E</t>
+    <t>1700401234576</t>
+  </si>
+  <si>
+    <t>user1248</t>
   </si>
   <si>
     <t>0709545560</t>
@@ -922,10 +922,10 @@
     <t>24</t>
   </si>
   <si>
-    <t>170040123473</t>
-  </si>
-  <si>
-    <t>lD8&amp;{sguX~N=L83x</t>
+    <t>1700401234577</t>
+  </si>
+  <si>
+    <t>user1249</t>
   </si>
   <si>
     <t>0712849429</t>
@@ -961,10 +961,10 @@
     <t>1977</t>
   </si>
   <si>
-    <t>170040123474</t>
-  </si>
-  <si>
-    <t>mY0#Z#CuGr&amp;</t>
+    <t>1700401234578</t>
+  </si>
+  <si>
+    <t>user1250</t>
   </si>
   <si>
     <t>0716153298</t>
@@ -1003,10 +1003,10 @@
     <t>Carlett</t>
   </si>
   <si>
-    <t>170040123475</t>
-  </si>
-  <si>
-    <t>eW7`FZ/{8wJ`i/D</t>
+    <t>1700401234579</t>
+  </si>
+  <si>
+    <t>user1251</t>
   </si>
   <si>
     <t>0719457167</t>
@@ -1048,10 +1048,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>170040123476</t>
-  </si>
-  <si>
-    <t>jZ5'?&gt;{0D/cvGvh&gt;</t>
+    <t>1700401234580</t>
+  </si>
+  <si>
+    <t>user1252</t>
   </si>
   <si>
     <t>0722761036</t>
@@ -1093,10 +1093,10 @@
     <t>1974</t>
   </si>
   <si>
-    <t>170040123477</t>
-  </si>
-  <si>
-    <t>jZ1.&lt;(\L.A#</t>
+    <t>1700401234581</t>
+  </si>
+  <si>
+    <t>user1253</t>
   </si>
   <si>
     <t>0726064905</t>
@@ -1141,10 +1141,10 @@
     <t>2009</t>
   </si>
   <si>
-    <t>170040123478</t>
-  </si>
-  <si>
-    <t>qD6#J,u1Te31qS@</t>
+    <t>1700401234582</t>
+  </si>
+  <si>
+    <t>user1254</t>
   </si>
   <si>
     <t>0729368774</t>
@@ -1183,10 +1183,10 @@
     <t>Dymock</t>
   </si>
   <si>
-    <t>170040123479</t>
-  </si>
-  <si>
-    <t>fF4)56iy.(0</t>
+    <t>1700401234583</t>
+  </si>
+  <si>
+    <t>user1255</t>
   </si>
   <si>
     <t>0732672643</t>
@@ -1228,10 +1228,10 @@
     <t>22</t>
   </si>
   <si>
-    <t>170040123480</t>
-  </si>
-  <si>
-    <t>tU0?%F,Yzu}hGOh</t>
+    <t>1700401234584</t>
+  </si>
+  <si>
+    <t>user1256</t>
   </si>
   <si>
     <t>0735976512</t>
@@ -1273,10 +1273,10 @@
     <t>1980</t>
   </si>
   <si>
-    <t>170040123481</t>
-  </si>
-  <si>
-    <t>jZ1+J`X,d0F\</t>
+    <t>1700401234585</t>
+  </si>
+  <si>
+    <t>user1257</t>
   </si>
   <si>
     <t>0739280381</t>
@@ -1315,10 +1315,10 @@
     <t>1990</t>
   </si>
   <si>
-    <t>170040123482</t>
-  </si>
-  <si>
-    <t>yB7(9,M=n~{cVB</t>
+    <t>1700401234586</t>
+  </si>
+  <si>
+    <t>user1258</t>
   </si>
   <si>
     <t>0742584250</t>
@@ -1348,10 +1348,10 @@
     <t>1969</t>
   </si>
   <si>
-    <t>170040123483</t>
-  </si>
-  <si>
-    <t>fR1&amp;FHMK</t>
+    <t>1700401234587</t>
+  </si>
+  <si>
+    <t>user1259</t>
   </si>
   <si>
     <t>0745888119</t>
@@ -1384,10 +1384,10 @@
     <t>Christye</t>
   </si>
   <si>
-    <t>170040123484</t>
-  </si>
-  <si>
-    <t>nK5(7F6x)B"a$ux</t>
+    <t>1700401234588</t>
+  </si>
+  <si>
+    <t>user1260</t>
   </si>
   <si>
     <t>0749191988</t>
@@ -1423,10 +1423,10 @@
     <t>1989</t>
   </si>
   <si>
-    <t>170040123485</t>
-  </si>
-  <si>
-    <t>uB8_ui)5</t>
+    <t>1700401234589</t>
+  </si>
+  <si>
+    <t>user1261</t>
   </si>
   <si>
     <t>0752495857</t>
@@ -1468,10 +1468,10 @@
     <t>1975</t>
   </si>
   <si>
-    <t>170040123486</t>
-  </si>
-  <si>
-    <t>mE8'H="U|5l(6</t>
+    <t>1700401234590</t>
+  </si>
+  <si>
+    <t>user1262</t>
   </si>
   <si>
     <t>0755799726</t>
@@ -1513,10 +1513,10 @@
     <t>1988</t>
   </si>
   <si>
-    <t>170040123487</t>
-  </si>
-  <si>
-    <t>nD6?IK+|I</t>
+    <t>1700401234591</t>
+  </si>
+  <si>
+    <t>user1263</t>
   </si>
   <si>
     <t>0759103595</t>
@@ -1549,10 +1549,10 @@
     <t>1996</t>
   </si>
   <si>
-    <t>170040123488</t>
-  </si>
-  <si>
-    <t>vZ5,hQsjF</t>
+    <t>1700401234592</t>
+  </si>
+  <si>
+    <t>user1264</t>
   </si>
   <si>
     <t>0762407464</t>
@@ -1594,10 +1594,10 @@
     <t>1995</t>
   </si>
   <si>
-    <t>170040123489</t>
-  </si>
-  <si>
-    <t>oG9+yz=NvJ</t>
+    <t>1700401234593</t>
+  </si>
+  <si>
+    <t>user1265</t>
   </si>
   <si>
     <t>0765711333</t>
@@ -1630,10 +1630,10 @@
     <t>1965</t>
   </si>
   <si>
-    <t>170040123490</t>
-  </si>
-  <si>
-    <t>rV4&lt;#!jVn9</t>
+    <t>1700401234594</t>
+  </si>
+  <si>
+    <t>user1266</t>
   </si>
   <si>
     <t>0769015202</t>
@@ -1660,10 +1660,10 @@
     <t>Fardy</t>
   </si>
   <si>
-    <t>170040123491</t>
-  </si>
-  <si>
-    <t>lV2&lt;\Q2g+EINgdUT</t>
+    <t>1700401234595</t>
+  </si>
+  <si>
+    <t>user1267</t>
   </si>
   <si>
     <t>0772319071</t>
@@ -1708,10 +1708,10 @@
     <t>2001</t>
   </si>
   <si>
-    <t>170040123492</t>
-  </si>
-  <si>
-    <t>eJ4~W#.XlG|"</t>
+    <t>1700401234596</t>
+  </si>
+  <si>
+    <t>user1268</t>
   </si>
   <si>
     <t>0775622940</t>
@@ -1750,10 +1750,10 @@
     <t>Burgot</t>
   </si>
   <si>
-    <t>170040123493</t>
-  </si>
-  <si>
-    <t>uN0)4bE!Ct</t>
+    <t>1700401234597</t>
+  </si>
+  <si>
+    <t>user1269</t>
   </si>
   <si>
     <t>0778926809</t>
@@ -1783,10 +1783,10 @@
     <t>Goalley</t>
   </si>
   <si>
-    <t>170040123494</t>
-  </si>
-  <si>
-    <t>zX5+&amp;e&amp;B)Vgt</t>
+    <t>1700401234598</t>
+  </si>
+  <si>
+    <t>user1270</t>
   </si>
   <si>
     <t>0782230678</t>
@@ -1819,10 +1819,10 @@
     <t>2007</t>
   </si>
   <si>
-    <t>170040123495</t>
-  </si>
-  <si>
-    <t>sU0{h9I&amp;QjL`</t>
+    <t>1700401234599</t>
+  </si>
+  <si>
+    <t>user1271</t>
   </si>
   <si>
     <t>0785534547</t>
@@ -1852,10 +1852,10 @@
     <t>Scripture</t>
   </si>
   <si>
-    <t>170040123496</t>
-  </si>
-  <si>
-    <t>qV2&amp;$KGU4}E8p</t>
+    <t>1700401234600</t>
+  </si>
+  <si>
+    <t>user1272</t>
   </si>
   <si>
     <t>0788838416</t>
@@ -1885,10 +1885,10 @@
     <t>Rucklidge</t>
   </si>
   <si>
-    <t>170040123497</t>
-  </si>
-  <si>
-    <t>qJ5?rH&gt;h7F</t>
+    <t>1700401234601</t>
+  </si>
+  <si>
+    <t>user1273</t>
   </si>
   <si>
     <t>0792142285</t>
@@ -1918,10 +1918,10 @@
     <t>Lightbourn</t>
   </si>
   <si>
-    <t>170040123498</t>
-  </si>
-  <si>
-    <t>yT6|6ra0</t>
+    <t>1700401234602</t>
+  </si>
+  <si>
+    <t>user1274</t>
   </si>
   <si>
     <t>0795446154</t>
@@ -1954,10 +1954,10 @@
     <t>1966</t>
   </si>
   <si>
-    <t>170040123499</t>
-  </si>
-  <si>
-    <t>tK7@(x,&gt;Pl_o%GFY</t>
+    <t>1700401234603</t>
+  </si>
+  <si>
+    <t>user1275</t>
   </si>
   <si>
     <t>0798750023</t>
@@ -1996,10 +1996,10 @@
     <t>Whitcomb</t>
   </si>
   <si>
-    <t>170040123500</t>
-  </si>
-  <si>
-    <t>tM1$Qv&amp;OrL=Mg%AG</t>
+    <t>1700401234604</t>
+  </si>
+  <si>
+    <t>user1276</t>
   </si>
   <si>
     <t>0802053892</t>
@@ -2038,10 +2038,10 @@
     <t>O'Rowane</t>
   </si>
   <si>
-    <t>170040123501</t>
-  </si>
-  <si>
-    <t>xV6_5u#Ch7Z&lt;yl</t>
+    <t>1700401234605</t>
+  </si>
+  <si>
+    <t>user1277</t>
   </si>
   <si>
     <t>0805357761</t>
@@ -2080,10 +2080,10 @@
     <t>Jeffreys</t>
   </si>
   <si>
-    <t>170040123502</t>
-  </si>
-  <si>
-    <t>iO9'B8cL66</t>
+    <t>1700401234606</t>
+  </si>
+  <si>
+    <t>user1278</t>
   </si>
   <si>
     <t>0808661630</t>
@@ -2116,10 +2116,10 @@
     <t>1967</t>
   </si>
   <si>
-    <t>170040123503</t>
-  </si>
-  <si>
-    <t>eI0%uO6WZ0uJBX</t>
+    <t>1700401234607</t>
+  </si>
+  <si>
+    <t>user1279</t>
   </si>
   <si>
     <t>0811965499</t>
@@ -2152,10 +2152,10 @@
     <t>1991</t>
   </si>
   <si>
-    <t>170040123504</t>
-  </si>
-  <si>
-    <t>cD4$CE*gz40</t>
+    <t>1700401234608</t>
+  </si>
+  <si>
+    <t>user1280</t>
   </si>
   <si>
     <t>0815269368</t>
@@ -2182,10 +2182,10 @@
     <t>1976</t>
   </si>
   <si>
-    <t>170040123505</t>
-  </si>
-  <si>
-    <t>sG0?2j,%!5+pETC</t>
+    <t>1700401234609</t>
+  </si>
+  <si>
+    <t>user1281</t>
   </si>
   <si>
     <t>0818573237</t>
@@ -2215,10 +2215,10 @@
     <t>1971</t>
   </si>
   <si>
-    <t>170040123506</t>
-  </si>
-  <si>
-    <t>mP4|%\K&gt;=oZzb</t>
+    <t>1700401234610</t>
+  </si>
+  <si>
+    <t>user1282</t>
   </si>
   <si>
     <t>0821877106</t>
@@ -2245,10 +2245,10 @@
     <t>1968</t>
   </si>
   <si>
-    <t>170040123507</t>
-  </si>
-  <si>
-    <t>uT6(+Rr*"W~i4tj</t>
+    <t>1700401234611</t>
+  </si>
+  <si>
+    <t>user1283</t>
   </si>
   <si>
     <t>0825180975</t>
@@ -2762,7 +2762,7 @@
       <c r="K4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>67</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -2824,7 +2824,7 @@
       <c r="K5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -2886,7 +2886,7 @@
       <c r="K6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -2948,7 +2948,7 @@
       <c r="K7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -3010,7 +3010,7 @@
       <c r="K8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>134</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -3061,40 +3061,40 @@
         <v>146</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="T9" s="2" t="b">
         <v>1</v>
@@ -3102,61 +3102,61 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="T10" s="2" t="b">
         <v>1</v>
@@ -3164,61 +3164,61 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="T11" s="2" t="b">
         <v>1</v>
@@ -3226,61 +3226,61 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="T12" s="2" t="b">
         <v>1</v>
@@ -3288,61 +3288,61 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="T13" s="2" t="b">
         <v>1</v>
@@ -3350,61 +3350,61 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>140</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T14" s="2" t="b">
         <v>1</v>
@@ -3412,31 +3412,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>242</v>
@@ -3444,7 +3444,7 @@
       <c r="K15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>244</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -3495,7 +3495,7 @@
         <v>256</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>257</v>
@@ -3506,7 +3506,7 @@
       <c r="K16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>260</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -3563,12 +3563,12 @@
         <v>28</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>274</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -3619,7 +3619,7 @@
         <v>286</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>83</v>
@@ -3630,7 +3630,7 @@
       <c r="K18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>289</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -3684,7 +3684,7 @@
         <v>302</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>258</v>
@@ -3692,7 +3692,7 @@
       <c r="K19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>304</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -3754,7 +3754,7 @@
       <c r="K20" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>317</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -3811,12 +3811,12 @@
         <v>47</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>331</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -3878,7 +3878,7 @@
       <c r="K22" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>346</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -3929,10 +3929,10 @@
         <v>358</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>359</v>
@@ -3940,7 +3940,7 @@
       <c r="K23" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>361</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -4002,7 +4002,7 @@
       <c r="K24" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>377</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -4064,7 +4064,7 @@
       <c r="K25" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>391</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -4126,7 +4126,7 @@
       <c r="K26" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="7" t="s">
         <v>406</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -4188,7 +4188,7 @@
       <c r="K27" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>421</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -4242,7 +4242,7 @@
         <v>432</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>433</v>
@@ -4250,7 +4250,7 @@
       <c r="K28" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>435</v>
       </c>
       <c r="M28" s="2" t="s">
@@ -4312,7 +4312,7 @@
       <c r="K29" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>446</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -4366,15 +4366,15 @@
         <v>302</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>458</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -4387,16 +4387,16 @@
         <v>461</v>
       </c>
       <c r="P30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>462</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T30" s="2" t="b">
         <v>1</v>
@@ -4428,7 +4428,7 @@
         <v>468</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>469</v>
@@ -4436,7 +4436,7 @@
       <c r="K31" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="7" t="s">
         <v>471</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -4498,7 +4498,7 @@
       <c r="K32" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="7" t="s">
         <v>486</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -4549,10 +4549,10 @@
         <v>498</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>499</v>
@@ -4560,7 +4560,7 @@
       <c r="K33" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="7" t="s">
         <v>501</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -4614,7 +4614,7 @@
         <v>130</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>511</v>
@@ -4622,7 +4622,7 @@
       <c r="K34" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="7" t="s">
         <v>513</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -4673,7 +4673,7 @@
         <v>525</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>47</v>
@@ -4684,7 +4684,7 @@
       <c r="K35" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="7" t="s">
         <v>528</v>
       </c>
       <c r="M35" s="2" t="s">
@@ -4697,16 +4697,16 @@
         <v>531</v>
       </c>
       <c r="P35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>532</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T35" s="2" t="b">
         <v>1</v>
@@ -4746,7 +4746,7 @@
       <c r="K36" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
         <v>540</v>
       </c>
       <c r="M36" s="2" t="s">
@@ -4800,7 +4800,7 @@
         <v>64</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>29</v>
@@ -4808,7 +4808,7 @@
       <c r="K37" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="7" t="s">
         <v>550</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -4870,7 +4870,7 @@
       <c r="K38" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="7" t="s">
         <v>566</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -4932,7 +4932,7 @@
       <c r="K39" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="7" t="s">
         <v>580</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -4994,7 +4994,7 @@
       <c r="K40" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="7" t="s">
         <v>591</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -5056,7 +5056,7 @@
       <c r="K41" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="7" t="s">
         <v>603</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -5118,7 +5118,7 @@
       <c r="K42" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="7" t="s">
         <v>614</v>
       </c>
       <c r="M42" s="2" t="s">
@@ -5180,7 +5180,7 @@
       <c r="K43" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="7" t="s">
         <v>625</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -5193,16 +5193,16 @@
         <v>628</v>
       </c>
       <c r="P43" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>629</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T43" s="2" t="b">
         <v>1</v>
@@ -5242,7 +5242,7 @@
       <c r="K44" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="7" t="s">
         <v>636</v>
       </c>
       <c r="M44" s="2" t="s">
@@ -5255,16 +5255,16 @@
         <v>639</v>
       </c>
       <c r="P44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>640</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T44" s="2" t="b">
         <v>1</v>
@@ -5304,7 +5304,7 @@
       <c r="K45" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="7" t="s">
         <v>648</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -5355,10 +5355,10 @@
         <v>660</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>538</v>
@@ -5366,7 +5366,7 @@
       <c r="K46" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="7" t="s">
         <v>662</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -5420,7 +5420,7 @@
         <v>374</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>315</v>
@@ -5428,7 +5428,7 @@
       <c r="K47" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="7" t="s">
         <v>676</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -5482,15 +5482,15 @@
         <v>28</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="7" t="s">
         <v>690</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -5541,10 +5541,10 @@
         <v>699</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>700</v>
@@ -5552,7 +5552,7 @@
       <c r="K49" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="7" t="s">
         <v>702</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -5606,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>712</v>
@@ -5614,7 +5614,7 @@
       <c r="K50" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="7" t="s">
         <v>714</v>
       </c>
       <c r="M50" s="2" t="s">
@@ -5668,7 +5668,7 @@
         <v>563</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>722</v>
@@ -5676,7 +5676,7 @@
       <c r="K51" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="7" t="s">
         <v>724</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -5738,7 +5738,7 @@
       <c r="K52" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="7" t="s">
         <v>735</v>
       </c>
       <c r="M52" s="2" t="s">
@@ -5792,7 +5792,7 @@
         <v>732</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>743</v>
@@ -5800,7 +5800,7 @@
       <c r="K53" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="7" t="s">
         <v>745</v>
       </c>
       <c r="M53" s="2" t="s">
